--- a/va_facility_data_2025-02-20/Causeway VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Causeway%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Causeway VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Causeway%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,8 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Satisfaction with Care" sheetId="1" r:id="R023b6914d49c4070a9046ba34f8b87f6"/>
-    <x:sheet name="Outpatient Score" sheetId="2" r:id="Ra024f897119d4dab84345ba7a9fccfe5"/>
+    <x:sheet name="Satisfaction with Care" sheetId="1" r:id="Rd8c0d32308734a8d90f3b70509117fb3"/>
+    <x:sheet name="Outpatient Score" sheetId="2" r:id="R3425efa5344541468f9bb3d7e5374e91"/>
   </x:sheets>
 </x:workbook>
 </file>
